--- a/data/trans_orig/P57C1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>32723</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23435</v>
+        <v>23825</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45344</v>
+        <v>46317</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06581586791836244</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04713516150752746</v>
+        <v>0.04791926551867025</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09120011493988864</v>
+        <v>0.09315611302654675</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -762,19 +762,19 @@
         <v>45809</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34972</v>
+        <v>34960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60464</v>
+        <v>58911</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07415975632033446</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05661696737414191</v>
+        <v>0.05659708276526935</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09788479682838819</v>
+        <v>0.09537103971391579</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>107</v>
@@ -783,19 +783,19 @@
         <v>78532</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63616</v>
+        <v>63998</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96298</v>
+        <v>96136</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07043875209649217</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05705970306930556</v>
+        <v>0.05740217960826471</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08637385313479633</v>
+        <v>0.08622810305291283</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>64250</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50684</v>
+        <v>50657</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79508</v>
+        <v>79468</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1292241452952643</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1019404842720831</v>
+        <v>0.1018847031751235</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1599135726961917</v>
+        <v>0.1598322091256365</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>145</v>
@@ -833,19 +833,19 @@
         <v>94088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>78330</v>
+        <v>79569</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109924</v>
+        <v>112637</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1523196750783275</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1268087767653991</v>
+        <v>0.1288136377381085</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1779561019009945</v>
+        <v>0.1823478179642156</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>219</v>
@@ -854,19 +854,19 @@
         <v>158338</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>139730</v>
+        <v>137695</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>182618</v>
+        <v>180471</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1420200929489281</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1253296479516448</v>
+        <v>0.1235048515015835</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1637983613394838</v>
+        <v>0.1618725774238292</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>120430</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>99278</v>
+        <v>101240</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>140884</v>
+        <v>143988</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2422184428143678</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1996766232617807</v>
+        <v>0.2036230601225617</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2833568904271188</v>
+        <v>0.2896005370257196</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>203</v>
@@ -904,19 +904,19 @@
         <v>138703</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>120358</v>
+        <v>120275</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>157002</v>
+        <v>156600</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2245466888712452</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1948468985406277</v>
+        <v>0.1947135842490534</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2541698921921823</v>
+        <v>0.2535194731074292</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>316</v>
@@ -925,19 +925,19 @@
         <v>259133</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>233115</v>
+        <v>235021</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>288563</v>
+        <v>288032</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2324275074892795</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2090904505885376</v>
+        <v>0.2108003553049664</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2588248261190952</v>
+        <v>0.2583483254368926</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>164782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>142225</v>
+        <v>144097</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>188119</v>
+        <v>190144</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3314223132621715</v>
+        <v>0.3314223132621714</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2860539461987013</v>
+        <v>0.2898203185859177</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3783613539360738</v>
+        <v>0.3824336404422398</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>271</v>
@@ -975,19 +975,19 @@
         <v>204416</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>183639</v>
+        <v>185212</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>226231</v>
+        <v>227550</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3309285830117695</v>
+        <v>0.3309285830117696</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2972941250109007</v>
+        <v>0.2998396907500979</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3662458480612472</v>
+        <v>0.3683808173796057</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>412</v>
@@ -996,19 +996,19 @@
         <v>369197</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>337944</v>
+        <v>341030</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>401031</v>
+        <v>402402</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3311487648093533</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3031161182791409</v>
+        <v>0.3058842098669198</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.359701907411842</v>
+        <v>0.3609312747967729</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>115011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94379</v>
+        <v>93671</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>142067</v>
+        <v>138912</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2313192307098339</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1898238139035457</v>
+        <v>0.1883993417748409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2857368615047933</v>
+        <v>0.2793918470240255</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>164</v>
@@ -1046,19 +1046,19 @@
         <v>134687</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115638</v>
+        <v>115158</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>154896</v>
+        <v>153390</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2180452967183234</v>
+        <v>0.2180452967183233</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.187205968287315</v>
+        <v>0.1864292609128478</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2507614858329244</v>
+        <v>0.2483235341325993</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>253</v>
@@ -1067,19 +1067,19 @@
         <v>249698</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>221168</v>
+        <v>220200</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>284097</v>
+        <v>284125</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.223964882655947</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1983750526342108</v>
+        <v>0.1975066638389078</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.25481907922635</v>
+        <v>0.2548443417587749</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>17851</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11014</v>
+        <v>10831</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28975</v>
+        <v>28461</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01859224014834641</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01147132282242712</v>
+        <v>0.01128090597896999</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03017803544953832</v>
+        <v>0.02964258047595231</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -1192,19 +1192,19 @@
         <v>23387</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17218</v>
+        <v>17424</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31413</v>
+        <v>31440</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02103121501307699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01548423005563176</v>
+        <v>0.01566921336681999</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02824944245136559</v>
+        <v>0.02827390679787065</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1213,19 +1213,19 @@
         <v>41238</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31095</v>
+        <v>31826</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53907</v>
+        <v>53805</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01990109998489769</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0150064696814575</v>
+        <v>0.01535919800344629</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02601534100202721</v>
+        <v>0.02596605354740085</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>56148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43986</v>
+        <v>42806</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69857</v>
+        <v>70406</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05847965875156284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04581217795446558</v>
+        <v>0.04458372571347644</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07275715886470681</v>
+        <v>0.07332879000958846</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>161</v>
@@ -1263,19 +1263,19 @@
         <v>97295</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>82454</v>
+        <v>82818</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>114085</v>
+        <v>113118</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08749552699756724</v>
+        <v>0.08749552699756726</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07414975904569104</v>
+        <v>0.07447703661424057</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1025949461714222</v>
+        <v>0.1017252393173957</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>234</v>
@@ -1284,19 +1284,19 @@
         <v>153443</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>134208</v>
+        <v>133201</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>174092</v>
+        <v>173742</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.07405083380508438</v>
+        <v>0.07405083380508437</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06476785267589355</v>
+        <v>0.06428182694346384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08401583144133688</v>
+        <v>0.08384668213227014</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>158238</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>135099</v>
+        <v>135730</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>182271</v>
+        <v>180826</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1648072942960015</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1407077144702748</v>
+        <v>0.1413648579580535</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1898390348956983</v>
+        <v>0.1883331594846821</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>358</v>
@@ -1334,19 +1334,19 @@
         <v>221665</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>199743</v>
+        <v>199205</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>244191</v>
+        <v>244540</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1993393352636486</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.179625137705839</v>
+        <v>0.1791412977085272</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2195963970712686</v>
+        <v>0.2199111049783831</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>548</v>
@@ -1355,19 +1355,19 @@
         <v>379902</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>349471</v>
+        <v>350674</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>411990</v>
+        <v>415318</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1833386871981131</v>
+        <v>0.183338687198113</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.168652711291195</v>
+        <v>0.1692334451517351</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1988239074226649</v>
+        <v>0.2004303047530687</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>398374</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>364771</v>
+        <v>364954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>432992</v>
+        <v>435649</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4149140450312649</v>
+        <v>0.414914045031265</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3799155946564557</v>
+        <v>0.3801059151717797</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4509688002147353</v>
+        <v>0.4537367424722925</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>639</v>
@@ -1405,19 +1405,19 @@
         <v>466567</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>438682</v>
+        <v>435019</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>498328</v>
+        <v>494233</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4195753787319261</v>
+        <v>0.4195753787319262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3944996178270926</v>
+        <v>0.3912050024881684</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4481381765911189</v>
+        <v>0.4444556348402767</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1012</v>
@@ -1426,19 +1426,19 @@
         <v>864941</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>820997</v>
+        <v>820773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>908639</v>
+        <v>906849</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4174155191357274</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3962084636541816</v>
+        <v>0.3961001669749813</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4385042040309645</v>
+        <v>0.4376399767291478</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>329526</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>294853</v>
+        <v>295270</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364319</v>
+        <v>364345</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3432067617728244</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3070944984880484</v>
+        <v>0.3075291835318397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3794448343635679</v>
+        <v>0.379472039406469</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>394</v>
@@ -1476,19 +1476,19 @@
         <v>303084</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>276884</v>
+        <v>279297</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>330933</v>
+        <v>331953</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2725585439937809</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2489973687299939</v>
+        <v>0.2511671996579175</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2976021653387042</v>
+        <v>0.2985194300181929</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>647</v>
@@ -1497,19 +1497,19 @@
         <v>632610</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>586501</v>
+        <v>590227</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>671908</v>
+        <v>676775</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3052938598761774</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2830418156983355</v>
+        <v>0.2848401607255588</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3242590412817624</v>
+        <v>0.3266079172973448</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>11630</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6029</v>
+        <v>6801</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19990</v>
+        <v>19823</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01112651961926229</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005767428140860499</v>
+        <v>0.00650613470457798</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01912454646177447</v>
+        <v>0.01896396791487394</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1622,19 +1622,19 @@
         <v>14514</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9203</v>
+        <v>9241</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23219</v>
+        <v>24336</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01389868732319777</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008813141686992163</v>
+        <v>0.008849118671122584</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02223533846284616</v>
+        <v>0.02330486504900941</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -1643,19 +1643,19 @@
         <v>26144</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18432</v>
+        <v>18204</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37836</v>
+        <v>37872</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01251191536222647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00882126648059822</v>
+        <v>0.008712030690997304</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01810749993306102</v>
+        <v>0.01812463449243171</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>29399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21045</v>
+        <v>20466</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40383</v>
+        <v>40164</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02812520053395764</v>
+        <v>0.02812520053395765</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02013364998140705</v>
+        <v>0.01957949734721415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0386338586103922</v>
+        <v>0.03842473858049446</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -1693,19 +1693,19 @@
         <v>32257</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24444</v>
+        <v>24470</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41493</v>
+        <v>41199</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0308904197653545</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02340892904618141</v>
+        <v>0.02343298391681132</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03973490179390293</v>
+        <v>0.0394533409798941</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>97</v>
@@ -1714,19 +1714,19 @@
         <v>61655</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49673</v>
+        <v>49928</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>74442</v>
+        <v>75336</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02950712376540621</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02377236620266714</v>
+        <v>0.02389469824214223</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03562658062926356</v>
+        <v>0.03605417042371067</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>96999</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>79058</v>
+        <v>81766</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>116834</v>
+        <v>117053</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09279753832231671</v>
+        <v>0.09279753832231673</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07563342506175508</v>
+        <v>0.07822425834725327</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1117732628560506</v>
+        <v>0.1119826265692723</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>224</v>
@@ -1764,19 +1764,19 @@
         <v>142991</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>125671</v>
+        <v>123489</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>163324</v>
+        <v>162811</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1369332557217352</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1203476333551479</v>
+        <v>0.1182579503752814</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.15640510182023</v>
+        <v>0.1559135839249557</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>341</v>
@@ -1785,19 +1785,19 @@
         <v>239990</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>213880</v>
+        <v>216712</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>267518</v>
+        <v>267815</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.114854441629797</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1023587033813714</v>
+        <v>0.1037141508405315</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1280291301311651</v>
+        <v>0.1281709547369565</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>513327</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>473422</v>
+        <v>479730</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>547278</v>
+        <v>545736</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4910931397044046</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4529163769869156</v>
+        <v>0.4589513508264569</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5235732522743052</v>
+        <v>0.5220985808582141</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>782</v>
@@ -1835,19 +1835,19 @@
         <v>513792</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>487530</v>
+        <v>485835</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>545325</v>
+        <v>539342</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4920265995844034</v>
+        <v>0.4920265995844033</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4668770737134279</v>
+        <v>0.4652534495823656</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5222236075559662</v>
+        <v>0.5164939623196502</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1307</v>
@@ -1856,19 +1856,19 @@
         <v>1027119</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>980507</v>
+        <v>980853</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1070977</v>
+        <v>1073027</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4915596379404753</v>
+        <v>0.4915596379404752</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4692517535229229</v>
+        <v>0.4694173251413387</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5125492176018372</v>
+        <v>0.5135302759086502</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>393919</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>363543</v>
+        <v>363316</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>435765</v>
+        <v>430184</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3768576018200588</v>
+        <v>0.3768576018200587</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3477970135501053</v>
+        <v>0.347579717971073</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4168908879281302</v>
+        <v>0.4115512250511352</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>423</v>
@@ -1906,19 +1906,19 @@
         <v>340683</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>311566</v>
+        <v>315823</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>367475</v>
+        <v>370077</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3262510376053091</v>
+        <v>0.3262510376053092</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2983671388059366</v>
+        <v>0.3024434058845508</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3519079623236794</v>
+        <v>0.3543990129366246</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>754</v>
@@ -1927,19 +1927,19 @@
         <v>734603</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>692319</v>
+        <v>691135</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>776972</v>
+        <v>781172</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.351566881302095</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3313304202192952</v>
+        <v>0.330763945151699</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.371844020778416</v>
+        <v>0.3738540327899855</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>8479</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3502</v>
+        <v>3586</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17924</v>
+        <v>18857</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.008702546045296177</v>
+        <v>0.008702546045296175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003594581638225809</v>
+        <v>0.003681172273779215</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0183976399878481</v>
+        <v>0.01935502589290391</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2052,19 +2052,19 @@
         <v>6323</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2854</v>
+        <v>3043</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12247</v>
+        <v>11957</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006961442058866414</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003142347497231695</v>
+        <v>0.003350282957946456</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01348457833119895</v>
+        <v>0.01316490232365484</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -2073,19 +2073,19 @@
         <v>14801</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8449</v>
+        <v>8599</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25342</v>
+        <v>25310</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007862518455373719</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004487939069878574</v>
+        <v>0.004568025901509113</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01346190925536159</v>
+        <v>0.01344469202841569</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>21844</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13862</v>
+        <v>12768</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>34841</v>
+        <v>34021</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02242091703364731</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01422848137524293</v>
+        <v>0.01310545373039111</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03576121868578632</v>
+        <v>0.03492020657985829</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -2123,19 +2123,19 @@
         <v>25132</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17383</v>
+        <v>17184</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35739</v>
+        <v>36795</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02767069480105788</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01913951529705247</v>
+        <v>0.01892042852095295</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03934896804601746</v>
+        <v>0.04051203959546573</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>57</v>
@@ -2144,19 +2144,19 @@
         <v>46976</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>35937</v>
+        <v>35448</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>63128</v>
+        <v>64101</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.02495376871853104</v>
+        <v>0.02495376871853103</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01909019729073537</v>
+        <v>0.01883022363588892</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03353402297025754</v>
+        <v>0.03405077721543864</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>61158</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46251</v>
+        <v>46855</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>80011</v>
+        <v>78500</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06277398621049217</v>
+        <v>0.06277398621049216</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04747324387993598</v>
+        <v>0.0480927857255433</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08212538995333608</v>
+        <v>0.08057421843064633</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>93</v>
@@ -2194,19 +2194,19 @@
         <v>64273</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>51065</v>
+        <v>52313</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>79666</v>
+        <v>80672</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07076620746523272</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05622352879007284</v>
+        <v>0.05759705169110198</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08771383398367187</v>
+        <v>0.08882164183919448</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>161</v>
@@ -2215,19 +2215,19 @@
         <v>125431</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>104865</v>
+        <v>106190</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>147021</v>
+        <v>147037</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06662998011497662</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05570512385073553</v>
+        <v>0.05640881183373098</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07809865425340898</v>
+        <v>0.07810695637291032</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>511874</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>474753</v>
+        <v>474138</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>547512</v>
+        <v>546421</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5253987728113487</v>
+        <v>0.5253987728113486</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4872972885759114</v>
+        <v>0.4866660806719035</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5619779854630831</v>
+        <v>0.5608590521911591</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>726</v>
@@ -2265,19 +2265,19 @@
         <v>459270</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>433041</v>
+        <v>432522</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>485524</v>
+        <v>485664</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5056637694936728</v>
+        <v>0.5056637694936729</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4767858554804889</v>
+        <v>0.476214536082436</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5345698963064229</v>
+        <v>0.5347242041992675</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1261</v>
@@ -2286,19 +2286,19 @@
         <v>971143</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>926377</v>
+        <v>923837</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1017138</v>
+        <v>1014020</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5158772580693985</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4920973743662723</v>
+        <v>0.4907478942761113</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5403099099704126</v>
+        <v>0.5386535183191178</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>370904</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>331053</v>
+        <v>337646</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>403227</v>
+        <v>406884</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3807037778992158</v>
+        <v>0.3807037778992157</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3397996377535889</v>
+        <v>0.3465674510517494</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4138811334674717</v>
+        <v>0.4176347275853627</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>456</v>
@@ -2336,19 +2336,19 @@
         <v>353253</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>326456</v>
+        <v>326928</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>380820</v>
+        <v>379959</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3889378861811702</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3594336991523528</v>
+        <v>0.3599528654238421</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4192898639740084</v>
+        <v>0.4183412139250642</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>769</v>
@@ -2357,19 +2357,19 @@
         <v>724157</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>679237</v>
+        <v>677274</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>772599</v>
+        <v>770942</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.38467647464172</v>
+        <v>0.3846764746417199</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3608147800359365</v>
+        <v>0.3597721538557167</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4104092882512684</v>
+        <v>0.4095289674625339</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>70683</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>54648</v>
+        <v>54567</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>90505</v>
+        <v>88895</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02032958998462065</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01571749692858051</v>
+        <v>0.01569421019777815</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02603062986360611</v>
+        <v>0.02556770683864048</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>153</v>
@@ -2482,19 +2482,19 @@
         <v>90032</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>75024</v>
+        <v>74817</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>107751</v>
+        <v>107122</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0244505786414543</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02037486240233372</v>
+        <v>0.02031875303956923</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02926284311135904</v>
+        <v>0.02909204099730322</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>233</v>
@@ -2503,19 +2503,19 @@
         <v>160715</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>138411</v>
+        <v>139249</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>184936</v>
+        <v>187122</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0224491799383014</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01933369319276911</v>
+        <v>0.01945073241202901</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02583241844392594</v>
+        <v>0.02613779872064627</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>171640</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>149089</v>
+        <v>148607</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>197924</v>
+        <v>199767</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04936644198079557</v>
+        <v>0.04936644198079556</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04288031836464787</v>
+        <v>0.04274155017292223</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05692594112619415</v>
+        <v>0.05745598985056054</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>400</v>
@@ -2553,19 +2553,19 @@
         <v>248772</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>226486</v>
+        <v>224466</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>275977</v>
+        <v>275697</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.0675609079640565</v>
+        <v>0.06756090796405649</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06150860965581401</v>
+        <v>0.0609599853466125</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07494920252241176</v>
+        <v>0.07487303769354339</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>607</v>
@@ -2574,19 +2574,19 @@
         <v>420412</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>387175</v>
+        <v>388515</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>456477</v>
+        <v>454589</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05872458647526187</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05408183235845944</v>
+        <v>0.0542690134556675</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06376224753017157</v>
+        <v>0.06349842745197749</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>436824</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>396513</v>
+        <v>395078</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>476964</v>
+        <v>477097</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1256374502886266</v>
+        <v>0.1256374502886265</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1140431621045063</v>
+        <v>0.1136304856230533</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1371821257256959</v>
+        <v>0.137220495113465</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>878</v>
@@ -2624,19 +2624,19 @@
         <v>567632</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>531102</v>
+        <v>530660</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>605122</v>
+        <v>605721</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1541562221075781</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1442355276964497</v>
+        <v>0.1441154729381191</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.164337662684969</v>
+        <v>0.1645003925542628</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1366</v>
@@ -2645,19 +2645,19 @@
         <v>1004457</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>951221</v>
+        <v>949937</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1060479</v>
+        <v>1056412</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1403057998698672</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1328696607754468</v>
+        <v>0.1326903654171558</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1481311478763181</v>
+        <v>0.1475631676856774</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>1588357</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1527870</v>
+        <v>1518656</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1658259</v>
+        <v>1652945</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4568360028569955</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4394391462887504</v>
+        <v>0.4367890735035613</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4769410285802962</v>
+        <v>0.4754125103513605</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2418</v>
@@ -2695,19 +2695,19 @@
         <v>1644044</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1591008</v>
+        <v>1590546</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1699955</v>
+        <v>1702606</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4464856518249948</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4320823403379678</v>
+        <v>0.4319566377685737</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4616699152922774</v>
+        <v>0.4623897570638322</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3992</v>
@@ -2716,19 +2716,19 @@
         <v>3232401</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3144036</v>
+        <v>3153132</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3308403</v>
+        <v>3308214</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4515124016798561</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4391693583693027</v>
+        <v>0.4404398848126166</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4621285829950552</v>
+        <v>0.4621023145581604</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>1209359</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1138608</v>
+        <v>1140585</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1273809</v>
+        <v>1277765</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3478305148889618</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3274812246443024</v>
+        <v>0.3280499238669779</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3663671882424011</v>
+        <v>0.3675049407375902</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1437</v>
@@ -2766,19 +2766,19 @@
         <v>1131708</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1081693</v>
+        <v>1078340</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1179510</v>
+        <v>1182060</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3073466394619163</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2937636539474367</v>
+        <v>0.2928530260217823</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.320328595588118</v>
+        <v>0.3210211147207305</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2423</v>
@@ -2787,19 +2787,19 @@
         <v>2341068</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2254899</v>
+        <v>2258720</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2419096</v>
+        <v>2415127</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.3270080320367135</v>
+        <v>0.3270080320367134</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.314971764103417</v>
+        <v>0.3155054827800373</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3379073014203052</v>
+        <v>0.3373529606861226</v>
       </c>
     </row>
     <row r="33">
